--- a/PrecipData/PRISM_ppt_tmean_stable.xlsx
+++ b/PrecipData/PRISM_ppt_tmean_stable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jett R\Dropbox (University of Oregon)\ESP_Research\PrecipData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jettr\Dropbox (University of Oregon)\ESP_Research\PrecipData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01620FD5-422D-43B6-9745-D86BDF306454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC476594-A904-43F4-838D-BAE5F47BDDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{F1D9223A-2487-411F-8401-D3E127CD070E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F1D9223A-2487-411F-8401-D3E127CD070E}"/>
   </bookViews>
   <sheets>
     <sheet name="PRISM_ppt_tmean_stable_4km_2016" sheetId="1" r:id="rId1"/>
@@ -5118,18 +5118,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A247D4BF-A50E-449C-A9A7-919A62C6579E}">
   <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="104" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="104" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42643</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42644</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42645</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42646</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42647</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42648</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42649</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42650</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42651</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42652</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42653</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42654</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42655</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42656</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42657</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42658</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42659</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42660</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42661</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42662</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42663</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42664</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42665</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42666</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42667</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42668</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42669</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42670</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42671</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42672</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42673</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>42674</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42675</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42676</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42677</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42678</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42679</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42680</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42681</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42682</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42683</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42684</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42685</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42686</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42687</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>42688</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42689</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>42690</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>42691</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>42692</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>42693</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>42694</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>42695</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>42696</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>42697</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>42698</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>42699</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>42700</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>42701</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>42702</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>42703</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>42704</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>42705</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>42706</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>42707</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>42708</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>42709</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>42710</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>42711</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>42712</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>42713</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>42714</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>42715</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>42716</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>42717</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>42718</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>42719</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>42720</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>42721</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>42722</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>42723</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>42724</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>42725</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>42726</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>42727</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>42728</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>42729</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>42730</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>42731</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>42732</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>42733</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>42734</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>42735</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>42736</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>42737</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>42738</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>42739</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>42740</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>42741</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>42742</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>42743</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>42744</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>42745</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>42746</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>42747</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>42748</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>42749</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>42750</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>42751</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>42752</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>42753</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>42754</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>42755</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>42756</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>42757</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>42758</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>42759</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>42760</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>42761</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>42762</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>42763</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>42764</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>42765</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>42766</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>42767</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>42768</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>42769</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>42770</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>42771</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>42772</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>42773</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>42774</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>42775</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>42776</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>42777</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>42778</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>42779</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>42780</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>42781</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>42782</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>42783</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>42784</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>42785</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>42786</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>42787</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>42788</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>42789</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>42790</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>42791</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>42792</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>42793</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>42794</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>42795</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>42796</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>42797</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>42798</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>42799</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>42800</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>42801</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>42802</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>42803</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>42804</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>42805</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>42806</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>42807</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>42808</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>42809</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>42810</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>42811</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>42812</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>42813</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>42814</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>42815</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>42816</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>42817</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>42818</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>42819</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>42820</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>42821</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>42822</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>42823</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>42824</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>42825</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>42826</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>42827</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>42828</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>42829</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>42830</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>42831</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>42832</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>42833</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>42834</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>42835</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>42836</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>42837</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>42838</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>42839</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>42840</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>42841</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>42842</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>42843</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>42844</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>42845</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>42846</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>42847</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>42848</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>42849</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>42850</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>42851</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>42852</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>42853</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>42854</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>42855</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>0.44191588785046704</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>42856</v>
       </c>
@@ -8367,54 +8367,54 @@
       <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
